--- a/Extension Docente/Archivos de Salida/04- ABRIL/02- DEFINITIVA/Calculos.xlsx
+++ b/Extension Docente/Archivos de Salida/04- ABRIL/02- DEFINITIVA/Calculos.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Abr23" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="13">
   <si>
     <t>ANSES</t>
   </si>
@@ -69,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +109,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -141,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -154,6 +163,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -725,4 +735,299 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B7:L34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <f>F10+F13+F16+F19</f>
+        <v>314723209.13999999</v>
+      </c>
+      <c r="C10" s="4">
+        <f>SUM(A10:B10)</f>
+        <v>314723209.13999999</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>267510209.78999999</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>204908364.22999999</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8">
+        <v>62601845.560000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>59618917.899999999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>45791940.130000003</v>
+      </c>
+      <c r="K11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>13826977.77</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8">
+        <v>26114935.600000001</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="8">
+        <v>22437991.440000001</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="8">
+        <v>6674787.8399999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="8">
+        <v>33503982.300000001</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="8">
+        <v>5460.7</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>29112779.280000001</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="8">
+        <v>15407038.65</v>
+      </c>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="8">
+        <v>13705740.630000001</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="8">
+        <v>5460.7</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="8">
+        <v>2184.2800000000002</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3276.42</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F20" s="2"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F21" s="2"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F22" s="6">
+        <f>F10+F11+F14+F17</f>
+        <v>356247367.67000002</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="6">
+        <f>I10+I11+I12+I13+L10+L11+L12+L13</f>
+        <v>356247367.66999996</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F23" s="2"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F24" s="2"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F25" s="2"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F26" s="2"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F28" s="2">
+        <f>I10</f>
+        <v>204908364.22999999</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F29" s="1">
+        <f>L10</f>
+        <v>62601845.560000002</v>
+      </c>
+      <c r="H29" s="1">
+        <f>SUM(F28:F31)</f>
+        <v>327129127.69</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F30" s="1">
+        <f>I11</f>
+        <v>45791940.130000003</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F31" s="1">
+        <f>L11</f>
+        <v>13826977.77</v>
+      </c>
+    </row>
+    <row r="32" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="F32" s="1">
+        <f>I12+I13</f>
+        <v>22443452.140000001</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="1">
+        <f>L12+L13</f>
+        <v>6674787.8399999999</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F34" s="5">
+        <f>SUM(F28:F33)</f>
+        <v>356247367.66999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="E27:F27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>